--- a/data/trans_orig/RUIDO_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94F2AFC5-A244-464C-864F-7E7CFB418F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D19B98B8-8C99-42A2-969D-6F7D4293341C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9977668C-90B2-4195-A149-DD56B2E18AE2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4A6368D-B16F-4A20-BCB1-298D780FC83E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>89,54%</t>
   </si>
   <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
   </si>
   <si>
     <t>90,12%</t>
   </si>
   <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>10,46%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>9,88%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>76,2%</t>
   </si>
   <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>78,68%</t>
   </si>
   <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
   </si>
   <si>
     <t>77,47%</t>
   </si>
   <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
   </si>
   <si>
     <t>21,32%</t>
   </si>
   <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
   </si>
   <si>
     <t>22,53%</t>
   </si>
   <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>62,79%</t>
   </si>
   <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
   </si>
   <si>
     <t>69,26%</t>
   </si>
   <si>
-    <t>64,67%</t>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
   </si>
   <si>
     <t>73,48%</t>
   </si>
   <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
     <t>20,53%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
   </si>
   <si>
     <t>22,3%</t>
   </si>
   <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E466E2F2-03EF-4209-BB3A-B896F9D4CBB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58E3862-3A95-4871-8DEC-CA204FE2ABD3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +832,7 @@
         <v>319</v>
       </c>
       <c r="D4" s="7">
-        <v>242383</v>
+        <v>242384</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -934,7 +934,7 @@
         <v>352</v>
       </c>
       <c r="D6" s="7">
-        <v>270687</v>
+        <v>270688</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -987,7 +987,7 @@
         <v>815</v>
       </c>
       <c r="D7" s="7">
-        <v>846574</v>
+        <v>846575</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1089,7 +1089,7 @@
         <v>1062</v>
       </c>
       <c r="D9" s="7">
-        <v>1110954</v>
+        <v>1110955</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/RUIDO_1_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D19B98B8-8C99-42A2-969D-6F7D4293341C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEB857F6-CB25-460D-BB97-54DA252C5FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4A6368D-B16F-4A20-BCB1-298D780FC83E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5D6B3A2E-C2B2-4BAA-8488-AF66AF2E9957}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58E3862-3A95-4871-8DEC-CA204FE2ABD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FA33F2-6FFE-4D08-81A5-628D856BFCC6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
